--- a/case_data/interface.xlsx
+++ b/case_data/interface.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="17160" windowHeight="7590"/>
+    <workbookView windowWidth="23895" windowHeight="10350"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
   <si>
     <t>CASE_ID</t>
   </si>
@@ -51,6 +51,9 @@
     <t>实际结果</t>
   </si>
   <si>
+    <t>case_01</t>
+  </si>
+  <si>
     <t>166彩票网登录</t>
   </si>
   <si>
@@ -64,6 +67,9 @@
   </si>
   <si>
     <t>login</t>
+  </si>
+  <si>
+    <t>登录成功</t>
   </si>
 </sst>
 </file>
@@ -72,9 +78,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -100,6 +106,22 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="宋体"/>
@@ -107,38 +129,39 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
       <color theme="3"/>
       <name val="宋体"/>
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -167,7 +190,6 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="宋体"/>
@@ -175,17 +197,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="15"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -208,22 +229,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,181 +250,181 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -429,6 +435,21 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -456,17 +477,13 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="thin">
-        <color rgb="FF3F3F3F"/>
-      </right>
+      <left/>
+      <right/>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color theme="4"/>
       </top>
-      <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -497,38 +514,27 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
       <top/>
       <bottom style="double">
         <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -537,10 +543,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -552,16 +558,16 @@
     <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -570,112 +576,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="19" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="12" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1040,7 +1046,7 @@
   <dimension ref="A1:K2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1050,7 +1056,8 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="7.625" customWidth="1"/>
+    <col min="10" max="10" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" s="1" customFormat="1" spans="1:11">
@@ -1088,21 +1095,27 @@
         <v>10</v>
       </c>
     </row>
-    <row r="2" spans="2:9">
+    <row r="2" spans="1:10">
+      <c r="A2" t="s">
+        <v>11</v>
+      </c>
       <c r="B2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="E2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="I2" t="s">
-        <v>15</v>
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/case_data/interface.xlsx
+++ b/case_data/interface.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
   <si>
     <t>CASE_ID</t>
   </si>
@@ -39,7 +39,10 @@
     <t>依赖id</t>
   </si>
   <si>
-    <t>依赖数据</t>
+    <t>依赖返回数据</t>
+  </si>
+  <si>
+    <t>数据依赖字段</t>
   </si>
   <si>
     <t>请求数据</t>
@@ -78,9 +81,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -99,6 +102,36 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="宋体"/>
@@ -116,36 +149,7 @@
     <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -160,8 +164,60 @@
     </font>
     <font>
       <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -175,61 +231,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -244,187 +247,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -435,6 +438,15 @@
       <right/>
       <top/>
       <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -449,15 +461,6 @@
       </top>
       <bottom style="double">
         <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -479,10 +482,8 @@
     <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -490,8 +491,10 @@
     <border>
       <left/>
       <right/>
-      <top/>
-      <bottom style="medium">
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -512,15 +515,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF3F3F3F"/>
       </left>
@@ -535,6 +529,15 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -543,10 +546,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -555,19 +558,19 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -576,112 +579,112 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="17" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="20" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="20" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1043,10 +1046,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:K2"/>
+  <dimension ref="A1:L2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2"/>
+      <selection activeCell="K8" sqref="K8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
@@ -1056,11 +1059,13 @@
     <col min="4" max="4" width="9.5" customWidth="1"/>
     <col min="6" max="6" width="11.625" customWidth="1"/>
     <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="9" max="9" width="7.625" customWidth="1"/>
-    <col min="10" max="10" width="31.875" customWidth="1"/>
+    <col min="8" max="8" width="14.25" customWidth="1"/>
+    <col min="9" max="9" width="12.25" customWidth="1"/>
+    <col min="10" max="10" width="7.625" customWidth="1"/>
+    <col min="11" max="11" width="31.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:11">
+    <row r="1" s="1" customFormat="1" spans="1:12">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1094,28 +1099,31 @@
       <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
     </row>
-    <row r="2" spans="1:10">
+    <row r="2" spans="1:11">
       <c r="A2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="B2" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>15</v>
-      </c>
-      <c r="I2" t="s">
         <v>16</v>
       </c>
       <c r="J2" t="s">
         <v>17</v>
+      </c>
+      <c r="K2" t="s">
+        <v>18</v>
       </c>
     </row>
   </sheetData>

--- a/case_data/interface.xlsx
+++ b/case_data/interface.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="41">
   <si>
     <t>CASE_ID</t>
   </si>
@@ -36,15 +36,21 @@
     <t>headers</t>
   </si>
   <si>
-    <t>依赖id</t>
-  </si>
-  <si>
-    <t>依赖返回数据</t>
+    <t>cookie</t>
+  </si>
+  <si>
+    <t>依赖case</t>
+  </si>
+  <si>
+    <t>返回依赖数据</t>
   </si>
   <si>
     <t>数据依赖字段</t>
   </si>
   <si>
+    <t>依赖需要</t>
+  </si>
+  <si>
     <t>请求数据</t>
   </si>
   <si>
@@ -57,22 +63,82 @@
     <t>case_01</t>
   </si>
   <si>
+    <t>看点啥登录</t>
+  </si>
+  <si>
+    <t>http://kds.km.com/app/html/login/clientapi/index.php?ctl=doLogin</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>GET</t>
+  </si>
+  <si>
+    <t>CAuthorization</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>"notice": "登录成功！"</t>
+  </si>
+  <si>
+    <t>case_02</t>
+  </si>
+  <si>
     <t>166彩票网登录</t>
   </si>
   <si>
     <t>https://888.166cai.cn/mainajax/login</t>
   </si>
   <si>
-    <t>yes</t>
-  </si>
-  <si>
     <t>POST</t>
   </si>
   <si>
     <t>login</t>
   </si>
   <si>
-    <t>登录成功</t>
+    <t>"uname": "淡淡的清香"</t>
+  </si>
+  <si>
+    <t>case_03</t>
+  </si>
+  <si>
+    <t>选注</t>
+  </si>
+  <si>
+    <t>https://888.166cai.cn/ajax/post</t>
+  </si>
+  <si>
+    <t>betchosen</t>
+  </si>
+  <si>
+    <t>"msg": "订单创建成功"</t>
+  </si>
+  <si>
+    <t>case_04</t>
+  </si>
+  <si>
+    <t>看点啥喜欢的视频</t>
+  </si>
+  <si>
+    <t>http://kds.km.com/app/index.php?ctl=fav&amp;act=getFav&amp;page=1&amp;api_ver=v2.2&amp;vcode=1000&amp;package_name=com.km.video&amp;deviceno=862561039071111&amp;definition=2&amp;openudid=00000000-10d7-ba88-3f6d-442175b7f8d6&amp;os=Android&amp;os_version=7.1.1&amp;device_model=ONEPLUS%20A3010&amp;sign=UwVWBVFVCwVSA1ZRUQsHWlEFVAUFCVADVgwABlYBUwA=</t>
+  </si>
+  <si>
+    <t>info.token</t>
+  </si>
+  <si>
+    <t>Authorization</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> "title": "《雷神3》雷神兄弟打不过死神！锤神的锤子都被捏碎了还当什么锤神？"</t>
+  </si>
+  <si>
+    <t>看点啥喜欢的视频接口</t>
+  </si>
+  <si>
+    <t>token</t>
   </si>
 </sst>
 </file>
@@ -81,9 +147,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
-    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
+    <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -94,17 +160,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -117,39 +182,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -163,6 +197,43 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="13"/>
       <color theme="3"/>
@@ -172,51 +243,6 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FFFF0000"/>
       <name val="宋体"/>
       <charset val="0"/>
@@ -231,8 +257,48 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -247,6 +313,36 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9"/>
         <bgColor indexed="64"/>
       </patternFill>
@@ -259,13 +355,85 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -277,157 +445,55 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -438,30 +504,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -489,17 +531,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
-      <bottom style="double">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FFB2B2B2"/>
       </left>
@@ -511,6 +542,17 @@
       </top>
       <bottom style="thin">
         <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -538,6 +580,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -546,10 +612,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="6" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -558,144 +624,153 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="22" borderId="6" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="18" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="9" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="32" borderId="8" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="10" applyFont="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,26 +1121,27 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L2"/>
+  <dimension ref="A1:N5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K8" sqref="K8"/>
+    <sheetView tabSelected="1" topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelRow="4"/>
   <cols>
-    <col min="2" max="2" width="13" customWidth="1"/>
-    <col min="3" max="3" width="38.75" customWidth="1"/>
+    <col min="2" max="2" width="21.875" customWidth="1"/>
+    <col min="3" max="3" width="33.5" customWidth="1"/>
     <col min="4" max="4" width="9.5" customWidth="1"/>
-    <col min="6" max="6" width="11.625" customWidth="1"/>
-    <col min="7" max="7" width="9.875" customWidth="1"/>
-    <col min="8" max="8" width="14.25" customWidth="1"/>
-    <col min="9" max="9" width="12.25" customWidth="1"/>
-    <col min="10" max="10" width="7.625" customWidth="1"/>
-    <col min="11" max="11" width="31.875" customWidth="1"/>
+    <col min="6" max="6" width="14.625" customWidth="1"/>
+    <col min="7" max="7" width="10" customWidth="1"/>
+    <col min="8" max="8" width="9.875" customWidth="1"/>
+    <col min="9" max="9" width="18.125" customWidth="1"/>
+    <col min="10" max="11" width="15" customWidth="1"/>
+    <col min="12" max="12" width="9.875" customWidth="1"/>
+    <col min="13" max="13" width="39.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" s="1" customFormat="1" spans="1:12">
+    <row r="1" s="1" customFormat="1" spans="1:14">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1102,33 +1178,132 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:13">
       <c r="A2" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
-      </c>
-      <c r="C2" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13">
+      <c r="A3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" t="s">
+        <v>26</v>
+      </c>
+      <c r="M3" s="2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13">
+      <c r="A4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>30</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="L4" t="s">
+        <v>31</v>
+      </c>
+      <c r="M4" s="2" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5" ht="27" spans="1:13">
+      <c r="A5" t="s">
+        <v>33</v>
+      </c>
+      <c r="B5" t="s">
+        <v>34</v>
+      </c>
+      <c r="C5" t="s">
+        <v>35</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F5" s="2"/>
+      <c r="G5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="H5" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="D2" t="s">
-        <v>15</v>
-      </c>
-      <c r="E2" t="s">
-        <v>16</v>
-      </c>
-      <c r="J2" t="s">
-        <v>17</v>
-      </c>
-      <c r="K2" t="s">
-        <v>18</v>
+      <c r="I5" t="s">
+        <v>36</v>
+      </c>
+      <c r="J5" t="s">
+        <v>37</v>
+      </c>
+      <c r="K5" t="s">
+        <v>5</v>
+      </c>
+      <c r="M5" s="4" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="https://888.166cai.cn/mainajax/login"/>
+    <hyperlink ref="C3" r:id="rId1" display="https://888.166cai.cn/mainajax/login"/>
+    <hyperlink ref="C2" r:id="rId2" display="http://kds.km.com/app/html/login/clientapi/index.php?ctl=doLogin" tooltip="http://kds.km.com/app/html/login/clientapi/index.php?ctl=doLogin"/>
+    <hyperlink ref="C5" r:id="rId3" display="http://kds.km.com/app/index.php?ctl=fav&amp;act=getFav&amp;page=1&amp;api_ver=v2.2&amp;vcode=1000&amp;package_name=com.km.video&amp;deviceno=862561039071111&amp;definition=2&amp;openudid=00000000-10d7-ba88-3f6d-442175b7f8d6&amp;os=Android&amp;os_version=7.1.1&amp;device_model=ONEPLUS%20A3010&amp;sign=UwVWBVFVCwVSA1ZRUQsHWlEFVAUFCVADVgwABlYBUwA="/>
   </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -1139,14 +1314,44 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1"/>
+  <dimension ref="A1:I1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>35</v>
+      </c>
+      <c r="D1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G1" t="s">
+        <v>22</v>
+      </c>
+      <c r="H1" t="s">
+        <v>40</v>
+      </c>
+      <c r="I1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C1" r:id="rId1" display="http://kds.km.com/app/index.php?ctl=fav&amp;act=getFav&amp;page=1&amp;api_ver=v2.2&amp;vcode=1000&amp;package_name=com.km.video&amp;deviceno=862561039071111&amp;definition=2&amp;openudid=00000000-10d7-ba88-3f6d-442175b7f8d6&amp;os=Android&amp;os_version=7.1.1&amp;device_model=ONEPLUS%20A3010&amp;sign=UwVWBVFVCwVSA1ZRUQsHWlEFVAUFCVADVgwABlYBUwA=" tooltip="http://kds.km.com/app/index.php?ctl=fav&amp;act=getFav&amp;page=1&amp;api_ver=v2.2&amp;vcode=1000&amp;package_name=com.km.video&amp;deviceno=862561039071111&amp;definition=2&amp;openudid=00000000-10d7-ba88-3f6d-442175b7f8d6&amp;os=Android&amp;os_version=7.1.1&amp;device_model=ONEPLUS%20A3010&amp;sign=U"/>
+  </hyperlinks>
   <pageMargins left="0.699305555555556" right="0.699305555555556" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
   <headerFooter/>
